--- a/InterviewTest/output/230468/230468_failed.xlsx
+++ b/InterviewTest/output/230468/230468_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230468\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88ADD4-BE6F-4E5A-85DE-C2716C2CE767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9329ABAB-EC16-4C23-97CA-04B2F57D565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  TOAN_CH: 13.8</t>
+    <t>Example:  TOAN_CH: 22.8</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230468/230468_failed.xlsx
+++ b/InterviewTest/output/230468/230468_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230468\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230468\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9329ABAB-EC16-4C23-97CA-04B2F57D565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05535CC8-3709-4A5A-B7EB-706D168C4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230468/230468_failed.xlsx
+++ b/InterviewTest/output/230468/230468_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230468\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230468\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05535CC8-3709-4A5A-B7EB-706D168C4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFA95F-2F6A-432F-AE13-1D0763D3483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
